--- a/testcases/test_cases.xlsx
+++ b/testcases/test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11055"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="test_cases" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>method</t>
   </si>
@@ -53,21 +53,39 @@
     <t>post</t>
   </si>
   <si>
-    <t>https://tapi.apbenben.com/benben-dubbo-web/login/login</t>
+    <t>https://api.hongrenju96.com/user/open/user/login</t>
   </si>
   <si>
-    <t>{'account':'13288837480','password':'asd123'}</t>
+    <t>Access-Domain=zt</t>
+  </si>
+  <si>
+    <t>{'userName': '13288837480',
+'password': '13288837480',
+'userType': '-1',
+'logPort': '0',
+'logType': '1',
+'domain': 'zt'}</t>
+  </si>
+  <si>
+    <t>https://api.hongrenju96.com/api/admin/user/updateUserPassword</t>
+  </si>
+  <si>
+    <t>{'id':'c39bf60707f64c108bf1ed7ae8641e9f',
+'newPassword':'13288837481',
+'token':'token'
+}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -678,12 +696,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
@@ -1221,59 +1251,83 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="54.75" customWidth="1"/>
-    <col min="5" max="5" width="45.5" customWidth="1"/>
-    <col min="7" max="7" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="47.5" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" ht="81" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2">
-        <v>200</v>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="5">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="3" ht="67.5" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://tapi.apbenben.com/benben-dubbo-web/login/login"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://api.hongrenju96.com/user/open/user/login" tooltip="https://api.hongrenju96.com/user/open/user/login"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://api.hongrenju96.com/api/admin/user/updateUserPassword" tooltip="https://api.hongrenju96.com/api/admin/user/updateUserPassword"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/testcases/test_cases.xlsx
+++ b/testcases/test_cases.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>method</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>params</t>
+  </si>
+  <si>
+    <t>form_data</t>
   </si>
   <si>
     <t>data</t>
@@ -70,10 +73,25 @@
     <t>https://api.hongrenju96.com/api/admin/user/updateUserPassword</t>
   </si>
   <si>
-    <t>{'id':'c39bf60707f64c108bf1ed7ae8641e9f',
-'newPassword':'13288837481',
-'token':'token'
+    <t>{'id':'c39bf60707f64c108bf1ed7ae8641e9f','newPassword':'13288837481','token':'token'
 }</t>
+  </si>
+  <si>
+    <t>https://test-api2.wsjw88.com/api/open/user/login</t>
+  </si>
+  <si>
+    <t>{'userName': '13288837480',
+'password': '132888',
+'userType': '-1',
+'logPort': '0',
+'logType': '1',
+'domain': 'zt'}</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>https://test-api2.wsjw88.com/api/admin/twHelpCenter/queryAll</t>
   </si>
 </sst>
 </file>
@@ -1251,19 +1269,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="47.5" customWidth="1"/>
-    <col min="5" max="5" width="39" customWidth="1"/>
+    <col min="2" max="2" width="64" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="39" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1285,49 +1306,85 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="81" spans="1:7">
+    <row r="2" ht="81" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="3" ht="54" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4" t="s">
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="5">
+      <c r="D3" s="2"/>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5">
         <v>1001</v>
       </c>
     </row>
-    <row r="3" ht="67.5" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="5">
-        <v>0</v>
+    <row r="4" ht="81" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="H4" s="5">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://api.hongrenju96.com/user/open/user/login" tooltip="https://api.hongrenju96.com/user/open/user/login"/>
     <hyperlink ref="B3" r:id="rId2" display="https://api.hongrenju96.com/api/admin/user/updateUserPassword" tooltip="https://api.hongrenju96.com/api/admin/user/updateUserPassword"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://test-api2.wsjw88.com/api/open/user/login"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://test-api2.wsjw88.com/api/admin/twHelpCenter/queryAll"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/testcases/test_cases.xlsx
+++ b/testcases/test_cases.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>method</t>
   </si>
@@ -75,23 +75,6 @@
   <si>
     <t>{'id':'c39bf60707f64c108bf1ed7ae8641e9f','newPassword':'13288837481','token':'token'
 }</t>
-  </si>
-  <si>
-    <t>https://test-api2.wsjw88.com/api/open/user/login</t>
-  </si>
-  <si>
-    <t>{'userName': '13288837480',
-'password': '132888',
-'userType': '-1',
-'logPort': '0',
-'logType': '1',
-'domain': 'zt'}</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>https://test-api2.wsjw88.com/api/admin/twHelpCenter/queryAll</t>
   </si>
 </sst>
 </file>
@@ -1269,13 +1252,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A4" sqref="$A4:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="64" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
@@ -1346,45 +1329,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="4" ht="81" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="H4" s="5">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1001</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://api.hongrenju96.com/user/open/user/login" tooltip="https://api.hongrenju96.com/user/open/user/login"/>
     <hyperlink ref="B3" r:id="rId2" display="https://api.hongrenju96.com/api/admin/user/updateUserPassword" tooltip="https://api.hongrenju96.com/api/admin/user/updateUserPassword"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://test-api2.wsjw88.com/api/open/user/login"/>
-    <hyperlink ref="B5" r:id="rId4" display="https://test-api2.wsjw88.com/api/admin/twHelpCenter/queryAll"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/testcases/test_cases.xlsx
+++ b/testcases/test_cases.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="test_cases" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+  <si>
+    <t>name</t>
+  </si>
   <si>
     <t>method</t>
   </si>
@@ -51,6 +54,15 @@
   </si>
   <si>
     <t>expected_status_code</t>
+  </si>
+  <si>
+    <t>dependencies</t>
+  </si>
+  <si>
+    <t>dependency_extracts</t>
+  </si>
+  <si>
+    <t>登录</t>
   </si>
   <si>
     <t>post</t>
@@ -70,11 +82,41 @@
 'domain': 'zt'}</t>
   </si>
   <si>
+    <t>更改密码</t>
+  </si>
+  <si>
     <t>https://api.hongrenju96.com/api/admin/user/updateUserPassword</t>
   </si>
   <si>
-    <t>{'id':'c39bf60707f64c108bf1ed7ae8641e9f','newPassword':'13288837481','token':'token'
+    <t>{'id':'c39bf60707f64c108bf1ed7ae8641e9f','newPassword':'13288837481','token':${token}
 }</t>
+  </si>
+  <si>
+    <t>登录:data.token</t>
+  </si>
+  <si>
+    <t>知识库列表</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>https://api.hongrenju96.com/ymkEnterprise/pc/admin/enterpriseKnowledge/page?page=1&amp;size=20</t>
+  </si>
+  <si>
+    <t>新建知识库</t>
+  </si>
+  <si>
+    <t>https://api.hongrenju96.com/ymkEnterprise/pc/admin/enterpriseKnowledge/saveProduct</t>
+  </si>
+  <si>
+    <t>{"name":"袜子","description":"阿萨德","targetUsers":"20-30","keySellingPoints":"这是一双来自深渊的袜子","price":20,"id":null,"images":[],"token":"token"}</t>
+  </si>
+  <si>
+    <t>删除知识库</t>
+  </si>
+  <si>
+    <t>https://api.hongrenju96.com/ymkEnterprise/pc/admin/enterpriseKnowledge/delete</t>
   </si>
 </sst>
 </file>
@@ -697,26 +739,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1252,87 +1297,168 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD6"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="2" max="2" width="64" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="32.625" customWidth="1"/>
-    <col min="6" max="6" width="39" customWidth="1"/>
-    <col min="8" max="8" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="6.625" customWidth="1"/>
+    <col min="3" max="3" width="64" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="39" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="81" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="F2" s="4" t="s">
+    <row r="2" ht="81" spans="1:9">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5">
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="7">
         <v>1001</v>
       </c>
     </row>
-    <row r="3" ht="54" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="3" ht="54" spans="1:11">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="7">
         <v>1001</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:9">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="I4" s="7">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="5" ht="81" spans="1:9">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:4">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://api.hongrenju96.com/user/open/user/login" tooltip="https://api.hongrenju96.com/user/open/user/login"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://api.hongrenju96.com/api/admin/user/updateUserPassword" tooltip="https://api.hongrenju96.com/api/admin/user/updateUserPassword"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://api.hongrenju96.com/user/open/user/login" tooltip="https://api.hongrenju96.com/user/open/user/login"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://api.hongrenju96.com/api/admin/user/updateUserPassword" tooltip="https://api.hongrenju96.com/api/admin/user/updateUserPassword"/>
+    <hyperlink ref="C5" r:id="rId3" display="https://api.hongrenju96.com/ymkEnterprise/pc/admin/enterpriseKnowledge/saveProduct"/>
+    <hyperlink ref="C6" r:id="rId4" display="https://api.hongrenju96.com/ymkEnterprise/pc/admin/enterpriseKnowledge/delete"/>
+    <hyperlink ref="C4" r:id="rId5" display="https://api.hongrenju96.com/ymkEnterprise/pc/admin/enterpriseKnowledge/page?page=1&amp;size=20" tooltip="https://api.hongrenju96.com/ymkEnterprise/pc/admin/enterpriseKnowledge/page?page=1&amp;size=20"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
